--- a/InvoiceExtraction/OutPut/Extracted Invoice Details.xlsx
+++ b/InvoiceExtraction/OutPut/Extracted Invoice Details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hari.krishnamorri\Desktop\test\InvoiceExtractionPOC_BOT1\InvoiceExtraction\OutPut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F06F304-22DE-4C5E-BC87-9837FDF448A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B04F02-F240-4072-A653-653450D1927B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1080" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
